--- a/Docs/BugReports/SGK_VEZNE_TO_DO_LIST.xlsx
+++ b/Docs/BugReports/SGK_VEZNE_TO_DO_LIST.xlsx
@@ -7,19 +7,22 @@
     <workbookView xWindow="-90" yWindow="-480" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
-    <sheet name="İşler" sheetId="3" r:id="rId1"/>
+    <sheet name="YAPILACAKLAR" sheetId="7" r:id="rId1"/>
     <sheet name="EK-1" sheetId="4" r:id="rId2"/>
     <sheet name="EK-2" sheetId="5" r:id="rId3"/>
     <sheet name="EK-3" sheetId="6" r:id="rId4"/>
+    <sheet name="EK-4" sheetId="8" r:id="rId5"/>
+    <sheet name="İşler" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">İşler!$A$7:$K$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">İşler!$A$1:$K$53</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">İşler!$7:$7</definedName>
-    <definedName name="Z_DC6320EA_61EB_4CD1_A0EE_2A0B2D60DCE9_.wvu.PrintArea" localSheetId="0" hidden="1">İşler!$A:$J</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">İşler!$A$7:$K$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">İşler!$A$1:$K$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">YAPILACAKLAR!$A$33:$J$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">İşler!$7:$7</definedName>
+    <definedName name="Z_DC6320EA_61EB_4CD1_A0EE_2A0B2D60DCE9_.wvu.PrintArea" localSheetId="5" hidden="1">İşler!$A:$J</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -402,12 +405,6 @@
     <t>Vezne Tanımlama</t>
   </si>
   <si>
-    <t>Ek-1 görüntüsünde SGK değil SLK (Acil) işlem yapıldığı görülüyor, bu durumda Branş kodu Acil seçilmeli</t>
-  </si>
-  <si>
-    <t>Kirkor Bey</t>
-  </si>
-  <si>
     <t>ŞU ANDA HATA MESAJI ÇIKMIYOR-22.07.11 ANCAK PROVİZYON VERMEDİĞİ HALDE "KARTIN İÇİNE SGK KATILIM PAYINI ATMASI DOĞRU MU?" DOĞRU!</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
   </si>
   <si>
     <t>Mecbur atacak. İlk kaydı yaparken otomatik provizyon aldığı için, default olarak daha çok gelen "Çalışan"ın gelmesi normal</t>
-  </si>
-  <si>
-    <t>Fiyatlar düzelmiş yalnız virgülden sonra 3 hane görünüyor.</t>
   </si>
   <si>
     <t>Kurum değiştirme tek kart için başarılı. Kurum değiştirme ekranında tüm kartlar seçildiğinde bir hata veriyor. Ayrıca kartların sıralanışında en yeni kartın en üstte olması gerekiyor.</t>
@@ -437,12 +431,69 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>Kullanıcıya vezne tanımlı olmadığı halde fatura işlemleri yapabiliyor ve böyle bir uyarı vermiyor.</t>
+  </si>
+  <si>
+    <t>Surpmed'de KDV hariç, Tıpdata'da KDV dahil fiyatlar görünüyor. Sabitlenmeli  her ikisinde de</t>
+  </si>
+  <si>
+    <t>Adı "Hasta Özgeçmişi" olarak değiştirilsin. Kaydetmiyor hala. Ve tekrar hasta dosyasına girildiğnde bu sekme açılsın ilk olarak</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Güncelle</t>
+  </si>
+  <si>
+    <t>Hastanın kartındayken, herhangi bir işlem değişikliği olduktan sonra (örn:tıpdatadan faturası iptal edildi…vs.) hasta kartını kapatıp tekrar açmak gerekiyor. Bunun yerine "Güncelle" gibi bir buton olsun ve tüm bilgiler güncellensin</t>
+  </si>
+  <si>
+    <t>Fizik Tedavi Kartı Ekle</t>
+  </si>
+  <si>
+    <t>Kurum değiştir'e tıklayınca açılan seçeneklerde, şu an hangi kurum seçili ise onun yanında işaret olsun</t>
+  </si>
+  <si>
+    <t>Hasta Bilgileri ekranına not alanı eklenmeli. ("Yurtdışı" bilgisini yazmak için)</t>
+  </si>
+  <si>
+    <t>Hasta Bilgileri</t>
+  </si>
+  <si>
+    <t>Ek-1 görüntüsünde SGK değil SLK (Acil) işlem yapıldığı görülüyor, bu durumda Branş kodu Acil seçilmeli-AYDIN</t>
+  </si>
+  <si>
+    <t>DAHA SONRA- DOKTOR EKRANLARI İLE BAĞLANTILI</t>
+  </si>
+  <si>
+    <t>Fizik tedavi kartı eklerken, seansı seçtikten sonra "Seçileni Ekle" butonuna tıklayınca exception verdi. Bkz. EK-4. / Provizyon almaya çalışırken ekran silik oldu ve provizyon alamadı</t>
+  </si>
+  <si>
+    <t>YAPILACAKLAR</t>
+  </si>
+  <si>
+    <t>TEST EDİLECEKLER</t>
+  </si>
+  <si>
+    <t>Planlanan Tarih</t>
+  </si>
+  <si>
+    <t>DAHA SONRA YAPILACAKLAR</t>
+  </si>
+  <si>
+    <t>EK-4</t>
+  </si>
+  <si>
+    <t>KİRKOR BEY-OK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +565,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -757,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -925,6 +994,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,7 +1026,360 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006200"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFC8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006200"/>
@@ -1534,6 +1980,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Resim" descr="FTK ekle.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="4229100" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1543,9 +2032,9 @@
       <sheetName val="Sayfa3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1836,14 +2325,1100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <dimension ref="A2:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A5" s="46">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="11">
+        <v>40730</v>
+      </c>
+      <c r="G5" s="11">
+        <v>40753</v>
+      </c>
+      <c r="H5" s="16">
+        <v>40753</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A6" s="47">
+        <v>59</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="16">
+        <v>40753</v>
+      </c>
+      <c r="G6" s="16">
+        <v>40753</v>
+      </c>
+      <c r="H6" s="16">
+        <v>40753</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A7" s="47">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A8" s="47">
+        <v>35</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G8" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A9" s="47">
+        <v>39</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A10" s="48">
+        <v>40</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G10" s="16">
+        <v>40758</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A11" s="47">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G11" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A12" s="47">
+        <v>48</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G12" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A13" s="47">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G13" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A14" s="47">
+        <v>26</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="16">
+        <v>40729</v>
+      </c>
+      <c r="G14" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="131.25" customHeight="1">
+      <c r="A15" s="47">
+        <v>42</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G15" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A16" s="47">
+        <v>45</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="16">
+        <v>40744</v>
+      </c>
+      <c r="G16" s="16">
+        <v>40758</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A17" s="47">
+        <v>50</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G17" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A18" s="47">
+        <v>51</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <v>40753</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A19" s="48">
+        <v>41</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G19" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A20" s="47">
+        <v>32</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G20" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A21" s="47">
+        <v>52</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G21" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A22" s="47">
+        <v>56</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="16">
+        <v>40746</v>
+      </c>
+      <c r="G22" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A23" s="47">
+        <v>23</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="16">
+        <v>40728</v>
+      </c>
+      <c r="G23" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A24" s="47">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="16">
+        <v>40728</v>
+      </c>
+      <c r="G24" s="16">
+        <v>40763</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A25" s="47">
+        <v>27</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="13">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="16">
+        <v>40729</v>
+      </c>
+      <c r="G25" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A26" s="47">
+        <v>38</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="16">
+        <v>40730</v>
+      </c>
+      <c r="G26" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A27" s="47">
+        <v>60</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="16">
+        <v>40753</v>
+      </c>
+      <c r="G27" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A28" s="47">
+        <v>61</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="16">
+        <v>40753</v>
+      </c>
+      <c r="G28" s="16">
+        <v>40756</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A29" s="49">
+        <v>62</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="18">
+        <v>5</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="21">
+        <v>40753</v>
+      </c>
+      <c r="G29" s="21">
+        <v>40756</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="59"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="59"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="59"/>
+    </row>
+    <row r="33" spans="1:10" ht="23.25">
+      <c r="A33" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="59"/>
+    </row>
+    <row r="35" spans="1:10" ht="30">
+      <c r="A35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="238.5" customHeight="1">
+      <c r="A36" s="60">
+        <v>58</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="62">
+        <v>2</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="65">
+        <v>40746</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="66"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="59"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="59"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" ht="23.25">
+      <c r="A40" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30">
+      <c r="A42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="165">
+      <c r="A43" s="49">
+        <v>44</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="18">
+        <v>5</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="21">
+        <v>40744</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21">
+        <v>40750</v>
+      </c>
+      <c r="I43" s="20">
+        <v>4</v>
+      </c>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="59"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:K30">
+    <sortCondition ref="C5:C30"/>
+  </sortState>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="expression" dxfId="37" priority="28">
+      <formula>$I14=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C43 C35:C36 C4:C29">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42 J35 J4">
+    <cfRule type="expression" dxfId="31" priority="43">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4 E10:G14 H6:J6 I5:J5 I14:J14 E42:I42 E43:J43 A36:C36 E36:J36 E4:G8 I7:J8 H8:J8 H10:J13 A5:C29 E15:J29 E9:J9">
+    <cfRule type="expression" dxfId="30" priority="42">
+      <formula>AND(#REF!=1,$I4=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="29" priority="40">
+      <formula>AND(#REF!=1,$I4=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="41">
+      <formula>$I4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:G14 H6:J6 I5:J5 I14:J14 A43:J43 A36:J36 A5:G8 I7:J8 H8 H10:J13 A15:J29 A9:J9">
+    <cfRule type="expression" dxfId="27" priority="38">
+      <formula>$I5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="39">
+      <formula>$I5=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="25" priority="36">
+      <formula>$I5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:G14 H6:J6 I5:J5 I14:J14 D43:J43 A36:B36 D36:J36 D5:G8 I7:J8 H8 H10:J13 A5:B29 D15:J29 D9:J9">
+    <cfRule type="expression" dxfId="24" priority="35">
+      <formula>$I5=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:G14 H6:J6 I5:J5 I14:J14 D43:J43 A36:B36 D36:J36 D5:G8 I7:J8 H8 H10:J13 A5:B29 D15:J29 D9:J9">
+    <cfRule type="expression" dxfId="23" priority="34">
+      <formula>$I5=4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>$I5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E8">
+    <cfRule type="expression" dxfId="21" priority="32">
+      <formula>$I7=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>$I11=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>$I12=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="18" priority="29">
+      <formula>$I15=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:C43">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>AND(#REF!=1,$I43=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND(#REF!=1,$I42=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$I42=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:B43">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I43=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:B43">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I43=4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:I35">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>AND(#REF!=1,$I35=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(#REF!=1,$I35=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>$I35=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>AND(#REF!=1,$I5=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$I5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$I5=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$I5=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I5=4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Lütfen 1 ile 5 arasında bir öncelik değeri belirtiniz!" sqref="C42:C43 C4:C29 C35:C36">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;RSGK VEZNE TO DO LIST &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFD477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1906,19 +3481,19 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="30">
       <c r="A7" s="27" t="s">
@@ -1955,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="45" hidden="1">
+    <row r="8" spans="1:28" ht="45">
       <c r="A8" s="46">
         <v>1</v>
       </c>
@@ -1990,7 +3565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="45" hidden="1">
+    <row r="9" spans="1:28" ht="45">
       <c r="A9" s="47">
         <v>2</v>
       </c>
@@ -2020,12 +3595,12 @@
       <c r="K9" s="17">
         <v>40729</v>
       </c>
-      <c r="AB9" s="3" t="b">
+      <c r="AB9" s="3" t="e">
         <f>AND([1]Sayfa1!$H1=1,[1]Sayfa1!$J1=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="45" hidden="1">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="45">
       <c r="A10" s="47">
         <v>3</v>
       </c>
@@ -2055,12 +3630,12 @@
       <c r="K10" s="17">
         <v>40729</v>
       </c>
-      <c r="AB10" s="3" t="b">
+      <c r="AB10" s="3" t="e">
         <f>AND([1]Sayfa1!$H2=1,[1]Sayfa1!$J2=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="45" hidden="1">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="45">
       <c r="A11" s="47">
         <v>4</v>
       </c>
@@ -2090,12 +3665,12 @@
       <c r="K11" s="17">
         <v>40729</v>
       </c>
-      <c r="AB11" s="3" t="b">
+      <c r="AB11" s="3" t="e">
         <f>AND([1]Sayfa1!$H3=1,[1]Sayfa1!$J3=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="45" hidden="1">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="45">
       <c r="A12" s="47">
         <v>5</v>
       </c>
@@ -2125,12 +3700,12 @@
       <c r="K12" s="17">
         <v>40729</v>
       </c>
-      <c r="AB12" s="3" t="b">
+      <c r="AB12" s="3" t="e">
         <f>AND([1]Sayfa1!$H4=1,[1]Sayfa1!$J4=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="45" hidden="1">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="45">
       <c r="A13" s="47">
         <v>6</v>
       </c>
@@ -2161,7 +3736,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" hidden="1">
+    <row r="14" spans="1:28" ht="30">
       <c r="A14" s="47">
         <v>7</v>
       </c>
@@ -2192,7 +3767,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" hidden="1">
+    <row r="15" spans="1:28" ht="30">
       <c r="A15" s="47">
         <v>8</v>
       </c>
@@ -2223,7 +3798,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="60" hidden="1">
+    <row r="16" spans="1:28" ht="60">
       <c r="A16" s="47">
         <v>9</v>
       </c>
@@ -2256,7 +3831,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" ht="30" hidden="1">
+    <row r="17" spans="1:16384" ht="30">
       <c r="A17" s="47">
         <v>10</v>
       </c>
@@ -2287,7 +3862,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" ht="45" hidden="1">
+    <row r="18" spans="1:16384" ht="45">
       <c r="A18" s="47">
         <v>11</v>
       </c>
@@ -2318,7 +3893,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" ht="45" hidden="1">
+    <row r="19" spans="1:16384" ht="45">
       <c r="A19" s="47">
         <v>12</v>
       </c>
@@ -2349,7 +3924,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" ht="30" hidden="1">
+    <row r="20" spans="1:16384" ht="30">
       <c r="A20" s="47">
         <v>13</v>
       </c>
@@ -2378,7 +3953,7 @@
       </c>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:16384" ht="60" hidden="1">
+    <row r="21" spans="1:16384" ht="60">
       <c r="A21" s="47">
         <v>14</v>
       </c>
@@ -2409,9 +3984,9 @@
         <v>40743</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="84" hidden="1" customHeight="1">
+    <row r="22" spans="1:16384" ht="84" customHeight="1">
       <c r="A22" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>8</v>
@@ -2442,7 +4017,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="45" hidden="1">
+    <row r="23" spans="1:16384" ht="45">
       <c r="A23" s="47">
         <v>16</v>
       </c>
@@ -2473,7 +4048,7 @@
       </c>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:16384" ht="60" hidden="1">
+    <row r="24" spans="1:16384" ht="60">
       <c r="A24" s="47">
         <v>17</v>
       </c>
@@ -2502,7 +4077,7 @@
       </c>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:16384" ht="75" hidden="1">
+    <row r="25" spans="1:16384" ht="75">
       <c r="A25" s="47">
         <v>18</v>
       </c>
@@ -2531,7 +4106,7 @@
       </c>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:16384" s="58" customFormat="1" ht="60.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:16384" s="58" customFormat="1" ht="60.75" customHeight="1">
       <c r="A26" s="50">
         <v>19</v>
       </c>
@@ -2545,7 +4120,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="55">
         <v>40730</v>
@@ -18937,7 +20512,7 @@
       <c r="XFC26" s="3"/>
       <c r="XFD26" s="3"/>
     </row>
-    <row r="27" spans="1:16384" ht="45" hidden="1">
+    <row r="27" spans="1:16384" ht="45">
       <c r="A27" s="47">
         <v>20</v>
       </c>
@@ -18970,7 +20545,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="30" hidden="1">
+    <row r="28" spans="1:16384" ht="30">
       <c r="A28" s="47">
         <v>21</v>
       </c>
@@ -19001,7 +20576,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" ht="75" hidden="1">
+    <row r="29" spans="1:16384" ht="75">
       <c r="A29" s="47">
         <v>22</v>
       </c>
@@ -19015,7 +20590,7 @@
         <v>59</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F29" s="16">
         <v>40732</v>
@@ -19034,7 +20609,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" ht="30" hidden="1">
+    <row r="30" spans="1:16384" ht="30">
       <c r="A30" s="47">
         <v>23</v>
       </c>
@@ -19057,12 +20632,12 @@
         <v>40729</v>
       </c>
       <c r="H30" s="16">
-        <v>40756</v>
+        <v>40763</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:16384" ht="45" hidden="1">
+    <row r="31" spans="1:16384" ht="45">
       <c r="A31" s="47">
         <v>24</v>
       </c>
@@ -19085,12 +20660,12 @@
         <v>40729</v>
       </c>
       <c r="H31" s="16">
-        <v>40756</v>
+        <v>40763</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:16384" ht="30" hidden="1">
+    <row r="32" spans="1:16384" ht="30">
       <c r="A32" s="47">
         <v>25</v>
       </c>
@@ -19119,7 +20694,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="45" hidden="1">
+    <row r="33" spans="1:11" ht="45">
       <c r="A33" s="47">
         <v>26</v>
       </c>
@@ -19147,7 +20722,7 @@
       <c r="J33" s="15"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" ht="30">
+    <row r="34" spans="1:11" ht="60">
       <c r="A34" s="47">
         <v>27</v>
       </c>
@@ -19161,7 +20736,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F34" s="16">
         <v>40729</v>
@@ -19169,13 +20744,13 @@
       <c r="G34" s="16">
         <v>40729</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="16">
+        <v>40756</v>
+      </c>
       <c r="I34" s="16">
         <v>40744</v>
       </c>
-      <c r="J34" s="15">
-        <v>4</v>
-      </c>
+      <c r="J34" s="15"/>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="45" customHeight="1">
@@ -19192,7 +20767,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F35" s="16">
         <v>40730</v>
@@ -19200,16 +20775,16 @@
       <c r="G35" s="16">
         <v>40737</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="16">
+        <v>40753</v>
+      </c>
       <c r="I35" s="16">
         <v>40750</v>
       </c>
-      <c r="J35" s="15">
-        <v>4</v>
-      </c>
+      <c r="J35" s="15"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="30" hidden="1">
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="47">
         <v>29</v>
       </c>
@@ -19254,7 +20829,7 @@
         <v>91</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="16">
         <v>40730</v>
@@ -19267,11 +20842,13 @@
         <v>40750</v>
       </c>
       <c r="J37" s="15">
-        <v>4</v>
-      </c>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="30" hidden="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>40753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="47">
         <v>31</v>
       </c>
@@ -19304,7 +20881,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" hidden="1">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="47">
         <v>32</v>
       </c>
@@ -19329,7 +20906,7 @@
       <c r="J39" s="15"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="105" hidden="1">
+    <row r="40" spans="1:11" ht="105">
       <c r="A40" s="47">
         <v>33</v>
       </c>
@@ -19362,7 +20939,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="47">
         <v>34</v>
       </c>
@@ -19387,7 +20964,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" ht="30" hidden="1">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="47">
         <v>35</v>
       </c>
@@ -19428,7 +21005,7 @@
         <v>47</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F43" s="16">
         <v>40730</v>
@@ -19441,11 +21018,13 @@
         <v>40750</v>
       </c>
       <c r="J43" s="15">
-        <v>4</v>
-      </c>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="60" hidden="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="17">
+        <v>40753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="60">
       <c r="A44" s="47">
         <v>37</v>
       </c>
@@ -19459,7 +21038,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F44" s="16">
         <v>40730</v>
@@ -19467,10 +21046,12 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="15"/>
+      <c r="J44" s="15">
+        <v>3</v>
+      </c>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11" ht="30" hidden="1">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="47">
         <v>38</v>
       </c>
@@ -19497,7 +21078,7 @@
       <c r="J45" s="15"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" ht="45" hidden="1">
+    <row r="46" spans="1:11" ht="45">
       <c r="A46" s="47">
         <v>39</v>
       </c>
@@ -19522,7 +21103,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="75" hidden="1">
+    <row r="47" spans="1:11" ht="75">
       <c r="A47" s="48">
         <v>40</v>
       </c>
@@ -19543,13 +21124,13 @@
         <v>40742</v>
       </c>
       <c r="H47" s="16">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="15"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="150" hidden="1">
+    <row r="48" spans="1:11" ht="150">
       <c r="A48" s="48">
         <v>41</v>
       </c>
@@ -19563,7 +21144,7 @@
         <v>54</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F48" s="16">
         <v>40730</v>
@@ -19571,12 +21152,14 @@
       <c r="G48" s="16">
         <v>40742</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="16">
+        <v>40763</v>
+      </c>
       <c r="I48" s="16"/>
       <c r="J48" s="15"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" ht="135" hidden="1">
+    <row r="49" spans="1:11" ht="135">
       <c r="A49" s="47">
         <v>42</v>
       </c>
@@ -19603,7 +21186,7 @@
       <c r="J49" s="15"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="1:11" ht="45" hidden="1">
+    <row r="50" spans="1:11" ht="45">
       <c r="A50" s="47">
         <v>43</v>
       </c>
@@ -19650,7 +21233,7 @@
         <v>65</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F51" s="16">
         <v>40744</v>
@@ -19665,7 +21248,7 @@
       </c>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" ht="75" hidden="1">
+    <row r="52" spans="1:11" ht="75">
       <c r="A52" s="47">
         <v>45</v>
       </c>
@@ -19684,13 +21267,13 @@
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="15"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" ht="90" hidden="1">
+    <row r="53" spans="1:11" ht="90">
       <c r="A53" s="47">
         <v>46</v>
       </c>
@@ -19704,7 +21287,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F53" s="16">
         <v>40744</v>
@@ -19721,7 +21304,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="88.15" hidden="1" customHeight="1">
+    <row r="54" spans="1:11" ht="88.15" customHeight="1">
       <c r="A54" s="47">
         <v>47</v>
       </c>
@@ -19739,12 +21322,14 @@
         <v>40746</v>
       </c>
       <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="16">
+        <v>40763</v>
+      </c>
       <c r="I54" s="16"/>
       <c r="J54" s="15"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" ht="88.15" hidden="1" customHeight="1">
+    <row r="55" spans="1:11" ht="88.15" customHeight="1">
       <c r="A55" s="47">
         <v>48</v>
       </c>
@@ -19762,12 +21347,14 @@
         <v>40746</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="16">
+        <v>40763</v>
+      </c>
       <c r="I55" s="16"/>
       <c r="J55" s="15"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11" ht="88.15" hidden="1" customHeight="1">
+    <row r="56" spans="1:11" ht="88.15" customHeight="1">
       <c r="A56" s="47">
         <v>49</v>
       </c>
@@ -19785,12 +21372,14 @@
         <v>40746</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="16">
+        <v>40763</v>
+      </c>
       <c r="I56" s="16"/>
       <c r="J56" s="15"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="1:11" ht="20.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:11" ht="20.25" customHeight="1">
       <c r="A57" s="47">
         <v>50</v>
       </c>
@@ -19809,13 +21398,13 @@
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16">
-        <v>40751</v>
+        <v>40756</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="15"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="53.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:11" ht="72.75" customHeight="1">
       <c r="A58" s="47">
         <v>51</v>
       </c>
@@ -19828,19 +21417,21 @@
       <c r="D58" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="41" t="s">
+        <v>129</v>
+      </c>
       <c r="F58" s="16">
         <v>40746</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16">
-        <v>40751</v>
+        <v>40756</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="15"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="65.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:11" ht="65.25" customHeight="1">
       <c r="A59" s="47">
         <v>52</v>
       </c>
@@ -19853,7 +21444,9 @@
       <c r="D59" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="41" t="s">
+        <v>130</v>
+      </c>
       <c r="F59" s="16">
         <v>40746</v>
       </c>
@@ -19865,7 +21458,7 @@
       <c r="J59" s="15"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="61.5" hidden="1" customHeight="1">
+    <row r="60" spans="1:11" ht="61.5" customHeight="1">
       <c r="A60" s="47">
         <v>53</v>
       </c>
@@ -19908,7 +21501,7 @@
         <v>106</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F61" s="16">
         <v>40746</v>
@@ -19919,11 +21512,13 @@
         <v>40750</v>
       </c>
       <c r="J61" s="15">
-        <v>4</v>
-      </c>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" ht="30.75" hidden="1" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="17">
+        <v>40753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30.75" customHeight="1">
       <c r="A62" s="47">
         <v>55</v>
       </c>
@@ -19952,7 +21547,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="45.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:11" ht="45.75" customHeight="1">
       <c r="A63" s="47">
         <v>56</v>
       </c>
@@ -19991,7 +21586,7 @@
         <v>113</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="16">
         <v>40745</v>
@@ -20002,11 +21597,13 @@
         <v>40750</v>
       </c>
       <c r="J64" s="15">
-        <v>4</v>
-      </c>
-      <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" ht="294.75" hidden="1" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="17">
+        <v>40753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="294.75" customHeight="1">
       <c r="A65" s="49">
         <v>58</v>
       </c>
@@ -20019,7 +21616,9 @@
       <c r="D65" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="42"/>
+      <c r="E65" s="42" t="s">
+        <v>138</v>
+      </c>
       <c r="F65" s="21">
         <v>40746</v>
       </c>
@@ -20029,39 +21628,99 @@
       <c r="J65" s="20"/>
       <c r="K65" s="22"/>
     </row>
-    <row r="66" spans="1:11">
-      <c r="D66" s="7"/>
+    <row r="66" spans="1:11" ht="48.75" customHeight="1">
+      <c r="A66" s="2">
+        <v>59</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6">
+        <v>40753</v>
+      </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6">
+        <v>40753</v>
+      </c>
       <c r="I66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11">
-      <c r="D67" s="7"/>
+    <row r="67" spans="1:11" ht="60">
+      <c r="A67" s="2">
+        <v>60</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E67" s="43"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6">
+        <v>40753</v>
+      </c>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="6">
+        <v>40756</v>
+      </c>
       <c r="I67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11">
-      <c r="D68" s="7"/>
+    <row r="68" spans="1:11" ht="30">
+      <c r="A68" s="2">
+        <v>61</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="E68" s="43"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="6">
+        <v>40753</v>
+      </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6">
+        <v>40756</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11">
-      <c r="D69" s="7"/>
+    <row r="69" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A69" s="2">
+        <v>62</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E69" s="43"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6">
+        <v>40753</v>
+      </c>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6">
+        <v>40756</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="K69" s="6"/>
     </row>
@@ -23501,15 +25160,9 @@
       <c r="K477" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:K65">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="A7:K69">
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
   </autoFilter>
   <sortState ref="A8:K65">
     <sortCondition ref="J8:J65"/>
@@ -23518,215 +25171,215 @@
     <mergeCell ref="A6:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="C484:C1048576 C7:C481">
-    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="84" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="39" priority="79">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I29 I34:I1048576 I32 J8:K1048576 A8:H1048576">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>$J8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>$J8=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="36" priority="74">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="35" priority="72">
+    <cfRule type="expression" dxfId="73" priority="72">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="34" priority="70">
+    <cfRule type="expression" dxfId="72" priority="70">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9">
-    <cfRule type="expression" dxfId="33" priority="68">
+    <cfRule type="expression" dxfId="71" priority="68">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="expression" dxfId="32" priority="66">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="expression" dxfId="31" priority="64">
+    <cfRule type="expression" dxfId="69" priority="64">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="30" priority="62">
+    <cfRule type="expression" dxfId="68" priority="62">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="29" priority="60">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="28" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="27" priority="56">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="64" priority="54">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="25" priority="52">
+    <cfRule type="expression" dxfId="63" priority="52">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="24" priority="49">
+    <cfRule type="expression" dxfId="62" priority="49">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="23" priority="47">
+    <cfRule type="expression" dxfId="61" priority="47">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="22" priority="45">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="21" priority="43">
+    <cfRule type="expression" dxfId="59" priority="43">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="20" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="19" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="17" priority="34">
+    <cfRule type="expression" dxfId="55" priority="34">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="16" priority="32">
+    <cfRule type="expression" dxfId="54" priority="32">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="53" priority="30">
       <formula>$J9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="52" priority="28">
       <formula>$J10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="51" priority="26">
       <formula>$J11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>$J30=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="49" priority="15">
       <formula>$J31=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="48" priority="13">
       <formula>$J33=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>$J39=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>$J41=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>$J48=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C448:D483 C8:C447 E62:K65 A34:C34 E34:K34 A62:C65 J7:J1048576 I7:I29 I34:I1048576 I32 E7:H1048576 K8:K477 A8:B483">
-    <cfRule type="expression" dxfId="6" priority="96">
+  <conditionalFormatting sqref="C448:D483 C8:C447 E62:K65 A34:C34 E34:K34 A62:C65 J7:J1048576 I7:I29 I34:I1048576 I32 K8:K477 A8:B483 E7:H1048576">
+    <cfRule type="expression" dxfId="44" priority="96">
       <formula>AND(#REF!=1,$J7=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="5" priority="102">
+    <cfRule type="expression" dxfId="43" priority="102">
       <formula>AND(#REF!=1,$J7=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="103">
+    <cfRule type="expression" dxfId="42" priority="103">
       <formula>$J7=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I29 I34:I1048576 I32 D8:H1048576 J8:K1048576 A8:B1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="I8:I29 I34:I1048576 I32 J8:K1048576 A8:B1048576 D8:H1048576">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>$J8=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I29 I34:I1048576 I32 D8:H1048576 J8:K1048576 A8:B1048576">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="I8:I29 I34:I1048576 I32 J8:K1048576 A8:B1048576 D8:H1048576">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$J8=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>$J31=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$J48=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23743,67 +25396,4 @@
     <oddFooter>&amp;RSGK VEZNE TO DO LIST- &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>